--- a/data/station_info.xlsx
+++ b/data/station_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\fish_biodiversity\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca Ruiz\Documents\fish_biodiversity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0623B9-64ED-4E98-B02C-AA113143A623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD87317-3925-4C92-9E63-7447DBE5C154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3513" yWindow="2567" windowWidth="17134" windowHeight="10033" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8" yWindow="23" windowWidth="11512" windowHeight="14924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="station_info" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,13 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Christopher Bird</author>
+    <author>tc={E85BCA1D-6496-4352-8A99-D430C0BA8726}</author>
+    <author>tc={1194933B-7E5F-4F70-898A-40D712500507}</author>
+    <author>tc={CB68F5D5-AEBF-47CD-9544-8C8A0BEC1B9A}</author>
+    <author>tc={C9BDFAF2-62E4-47BA-95AD-A3EA3704356A}</author>
+    <author>tc={E6286CE2-E4D5-4FE9-B7CA-7A6AC17E2718}</author>
+    <author>tc={F869298D-A48B-411B-94D6-848C4ED16DB5}</author>
+    <author>tc={A8353B0D-00CD-421F-B7C9-00D763F9EA8B}</author>
     <author>tc={C47FDACA-7EDF-4E84-A746-72C94AC59F5E}</author>
   </authors>
   <commentList>
@@ -158,6 +165,14 @@
         </r>
       </text>
     </comment>
+    <comment ref="V5" authorId="1" shapeId="0" xr:uid="{E85BCA1D-6496-4352-8A99-D430C0BA8726}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Depth water empty. Depth capture is 100ft (30.5m)</t>
+      </text>
+    </comment>
     <comment ref="AC30" authorId="0" shapeId="0" xr:uid="{F1E68B56-9488-4C53-BF90-1CF582B33A0C}">
       <text>
         <r>
@@ -182,7 +197,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="X76" authorId="1" shapeId="0" xr:uid="{C47FDACA-7EDF-4E84-A746-72C94AC59F5E}">
+    <comment ref="V31" authorId="2" shapeId="0" xr:uid="{1194933B-7E5F-4F70-898A-40D712500507}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Depth water empty, depth capture filled</t>
+      </text>
+    </comment>
+    <comment ref="W49" authorId="3" shapeId="0" xr:uid="{CB68F5D5-AEBF-47CD-9544-8C8A0BEC1B9A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Says 130+ feet</t>
+      </text>
+    </comment>
+    <comment ref="V51" authorId="4" shapeId="0" xr:uid="{C9BDFAF2-62E4-47BA-95AD-A3EA3704356A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    "To 100 ft." Min is ??</t>
+      </text>
+    </comment>
+    <comment ref="W54" authorId="5" shapeId="0" xr:uid="{E6286CE2-E4D5-4FE9-B7CA-7A6AC17E2718}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Depth water = "To ?" Data thus taken from depth capture</t>
+      </text>
+    </comment>
+    <comment ref="V61" authorId="6" shapeId="0" xr:uid="{F869298D-A48B-411B-94D6-848C4ED16DB5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Taken from depth capture</t>
+      </text>
+    </comment>
+    <comment ref="V73" authorId="7" shapeId="0" xr:uid="{A8353B0D-00CD-421F-B7C9-00D763F9EA8B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Different from field data sheet</t>
+      </text>
+    </comment>
+    <comment ref="X76" authorId="8" shapeId="0" xr:uid="{C47FDACA-7EDF-4E84-A746-72C94AC59F5E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -195,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="660">
   <si>
     <t>date_collected</t>
   </si>
@@ -2181,7 +2244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2328,6 +2391,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -3064,6 +3133,27 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="V5" dT="2022-10-20T13:14:42.82" personId="{1DCA13A5-B4FA-4724-8391-4DFF84EFB108}" id="{E85BCA1D-6496-4352-8A99-D430C0BA8726}">
+    <text>Depth water empty. Depth capture is 100ft (30.5m)</text>
+  </threadedComment>
+  <threadedComment ref="V31" dT="2022-10-20T13:28:47.31" personId="{1DCA13A5-B4FA-4724-8391-4DFF84EFB108}" id="{1194933B-7E5F-4F70-898A-40D712500507}">
+    <text>Depth water empty, depth capture filled</text>
+  </threadedComment>
+  <threadedComment ref="W49" dT="2022-10-20T14:39:43.19" personId="{1DCA13A5-B4FA-4724-8391-4DFF84EFB108}" id="{CB68F5D5-AEBF-47CD-9544-8C8A0BEC1B9A}">
+    <text>Says 130+ feet</text>
+  </threadedComment>
+  <threadedComment ref="V51" dT="2022-10-20T14:40:58.10" personId="{1DCA13A5-B4FA-4724-8391-4DFF84EFB108}" id="{C9BDFAF2-62E4-47BA-95AD-A3EA3704356A}">
+    <text>"To 100 ft." Min is ??</text>
+  </threadedComment>
+  <threadedComment ref="W54" dT="2022-10-20T14:42:45.30" personId="{1DCA13A5-B4FA-4724-8391-4DFF84EFB108}" id="{E6286CE2-E4D5-4FE9-B7CA-7A6AC17E2718}">
+    <text>Depth water = "To ?" Data thus taken from depth capture</text>
+  </threadedComment>
+  <threadedComment ref="V61" dT="2022-10-20T14:51:10.26" personId="{1DCA13A5-B4FA-4724-8391-4DFF84EFB108}" id="{F869298D-A48B-411B-94D6-848C4ED16DB5}">
+    <text>Taken from depth capture</text>
+  </threadedComment>
+  <threadedComment ref="V73" dT="2022-10-20T14:55:28.21" personId="{1DCA13A5-B4FA-4724-8391-4DFF84EFB108}" id="{A8353B0D-00CD-421F-B7C9-00D763F9EA8B}">
+    <text>Different from field data sheet</text>
+  </threadedComment>
   <threadedComment ref="X76" dT="2022-06-02T18:42:53.77" personId="{1DCA13A5-B4FA-4724-8391-4DFF84EFB108}" id="{C47FDACA-7EDF-4E84-A746-72C94AC59F5E}">
     <text>Literal words from sheet</text>
   </threadedComment>
@@ -3074,22 +3164,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W42" sqref="A42:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="G54" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="8" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="topRight" activeCell="V77" sqref="V77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="21" width="9" style="2"/>
-    <col min="22" max="23" width="9.1171875" style="2" customWidth="1"/>
+    <col min="22" max="23" width="9.1328125" style="2" customWidth="1"/>
     <col min="24" max="24" width="9" style="1"/>
-    <col min="25" max="28" width="9.1171875" customWidth="1"/>
+    <col min="25" max="28" width="9.1328125" customWidth="1"/>
     <col min="29" max="29" width="22" customWidth="1"/>
-    <col min="30" max="30" width="24.1171875" customWidth="1"/>
-    <col min="31" max="31" width="9.1171875" style="4" customWidth="1"/>
+    <col min="30" max="30" width="24.1328125" customWidth="1"/>
+    <col min="31" max="31" width="9.1328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="9" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:37" s="9" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3184,7 +3276,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>309</v>
       </c>
@@ -3279,7 +3371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>314</v>
       </c>
@@ -3374,7 +3466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>321</v>
       </c>
@@ -3469,7 +3561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>328</v>
       </c>
@@ -3533,11 +3625,11 @@
       <c r="U5" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="V5" s="2">
-        <v>30</v>
-      </c>
-      <c r="W5" s="2">
-        <v>30</v>
+      <c r="V5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>460</v>
@@ -3564,7 +3656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>331</v>
       </c>
@@ -3659,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>335</v>
       </c>
@@ -3723,8 +3815,8 @@
       <c r="U7" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="V7" s="2">
-        <v>29</v>
+      <c r="V7" s="6">
+        <v>37</v>
       </c>
       <c r="W7" s="2">
         <v>37</v>
@@ -3754,7 +3846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>340</v>
       </c>
@@ -3854,7 +3946,7 @@
       <c r="AJ8"/>
       <c r="AK8"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>346</v>
       </c>
@@ -3949,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>350</v>
       </c>
@@ -4044,7 +4136,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>358</v>
       </c>
@@ -4139,7 +4231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
@@ -4207,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>460</v>
@@ -4234,7 +4326,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>370</v>
       </c>
@@ -4302,7 +4394,7 @@
         <v>24</v>
       </c>
       <c r="W13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>460</v>
@@ -4329,7 +4421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>449</v>
       </c>
@@ -4424,7 +4516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>375</v>
       </c>
@@ -4519,7 +4611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>380</v>
       </c>
@@ -4584,10 +4676,10 @@
         <v>384</v>
       </c>
       <c r="V16" s="2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="W16" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>460</v>
@@ -4614,7 +4706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>385</v>
       </c>
@@ -4710,7 +4802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>390</v>
       </c>
@@ -4805,7 +4897,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>395</v>
       </c>
@@ -4845,7 +4937,7 @@
       <c r="M19" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="6" t="s">
         <v>398</v>
       </c>
       <c r="O19" s="2" t="s">
@@ -4900,7 +4992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>401</v>
       </c>
@@ -4995,7 +5087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>406</v>
       </c>
@@ -5090,7 +5182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>411</v>
       </c>
@@ -5185,7 +5277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>416</v>
       </c>
@@ -5280,7 +5372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>421</v>
       </c>
@@ -5375,7 +5467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>426</v>
       </c>
@@ -5440,7 +5532,7 @@
         <v>431</v>
       </c>
       <c r="V25" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="W25" s="2">
         <v>21</v>
@@ -5470,7 +5562,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>432</v>
       </c>
@@ -5538,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X26" s="1" t="s">
         <v>460</v>
@@ -5565,7 +5657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>439</v>
       </c>
@@ -5630,7 +5722,7 @@
         <v>443</v>
       </c>
       <c r="V27" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="W27" s="2">
         <v>21</v>
@@ -5660,7 +5752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>444</v>
       </c>
@@ -5755,7 +5847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
@@ -5850,7 +5942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -5945,7 +6037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -6009,10 +6101,10 @@
       <c r="U31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V31" s="2">
+      <c r="V31" s="6">
         <v>0</v>
       </c>
-      <c r="W31" s="2">
+      <c r="W31" s="6">
         <v>12</v>
       </c>
       <c r="X31" s="1" t="s">
@@ -6040,7 +6132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -6135,7 +6227,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>74</v>
       </c>
@@ -6230,7 +6322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>79</v>
       </c>
@@ -6325,7 +6417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>84</v>
       </c>
@@ -6389,7 +6481,7 @@
       <c r="U35" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="V35" s="2">
+      <c r="V35" s="6">
         <v>0</v>
       </c>
       <c r="W35" s="2">
@@ -6420,7 +6512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>89</v>
       </c>
@@ -6485,7 +6577,7 @@
         <v>92</v>
       </c>
       <c r="V36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="2">
         <v>1</v>
@@ -6515,7 +6607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>93</v>
       </c>
@@ -6610,7 +6702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -6705,7 +6797,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>104</v>
       </c>
@@ -6800,7 +6892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>110</v>
       </c>
@@ -6865,7 +6957,7 @@
         <v>114</v>
       </c>
       <c r="V40" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W40" s="2">
         <v>14</v>
@@ -6895,7 +6987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>35</v>
       </c>
@@ -6990,7 +7082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>35</v>
       </c>
@@ -7085,7 +7177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>120</v>
       </c>
@@ -7180,7 +7272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>125</v>
       </c>
@@ -7245,7 +7337,7 @@
         <v>128</v>
       </c>
       <c r="V44" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W44" s="2">
         <v>14</v>
@@ -7275,7 +7367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>129</v>
       </c>
@@ -7370,7 +7462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>28636</v>
       </c>
@@ -7465,7 +7557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>138</v>
       </c>
@@ -7530,7 +7622,7 @@
         <v>141</v>
       </c>
       <c r="V47" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="W47" s="2">
         <v>21</v>
@@ -7560,7 +7652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
@@ -7655,7 +7747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>146</v>
       </c>
@@ -7720,9 +7812,9 @@
         <v>152</v>
       </c>
       <c r="V49" s="2">
-        <v>0</v>
-      </c>
-      <c r="W49" s="2">
+        <v>40</v>
+      </c>
+      <c r="W49" s="6">
         <v>40</v>
       </c>
       <c r="X49" s="1" t="s">
@@ -7750,7 +7842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>153</v>
       </c>
@@ -7845,7 +7937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>159</v>
       </c>
@@ -7909,8 +8001,8 @@
       <c r="U51" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="V51" s="2">
-        <v>0</v>
+      <c r="V51" s="6">
+        <v>30</v>
       </c>
       <c r="W51" s="2">
         <v>30</v>
@@ -7940,7 +8032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>164</v>
       </c>
@@ -8035,7 +8127,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>169</v>
       </c>
@@ -8130,7 +8222,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>174</v>
       </c>
@@ -8197,7 +8289,7 @@
       <c r="V54" s="2">
         <v>0</v>
       </c>
-      <c r="W54" s="2">
+      <c r="W54" s="6">
         <v>30</v>
       </c>
       <c r="X54" s="1" t="s">
@@ -8225,7 +8317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>180</v>
       </c>
@@ -8320,7 +8412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>186</v>
       </c>
@@ -8415,7 +8507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>191</v>
       </c>
@@ -8510,7 +8602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>198</v>
       </c>
@@ -8605,7 +8697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
@@ -8673,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X59" s="1" t="s">
         <v>465</v>
@@ -8701,7 +8793,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>202</v>
       </c>
@@ -8796,7 +8888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>207</v>
       </c>
@@ -8860,10 +8952,10 @@
       <c r="U61" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="V61" s="2">
+      <c r="V61" s="6">
         <v>0</v>
       </c>
-      <c r="W61" s="2">
+      <c r="W61" s="6">
         <v>24</v>
       </c>
       <c r="X61" s="1" t="s">
@@ -8891,7 +8983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>215</v>
       </c>
@@ -8956,10 +9048,10 @@
         <v>219</v>
       </c>
       <c r="V62" s="2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="W62" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X62" s="1" t="s">
         <v>460</v>
@@ -8986,7 +9078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>220</v>
       </c>
@@ -9051,7 +9143,7 @@
         <v>224</v>
       </c>
       <c r="V63" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W63" s="2">
         <v>6</v>
@@ -9081,7 +9173,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>225</v>
       </c>
@@ -9176,7 +9268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>230</v>
       </c>
@@ -9271,7 +9363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>238</v>
       </c>
@@ -9366,7 +9458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>243</v>
       </c>
@@ -9461,7 +9553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>247</v>
       </c>
@@ -9556,7 +9648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>252</v>
       </c>
@@ -9621,7 +9713,7 @@
         <v>257</v>
       </c>
       <c r="V69" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="W69" s="2">
         <v>37</v>
@@ -9651,7 +9743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>258</v>
       </c>
@@ -9746,7 +9838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>263</v>
       </c>
@@ -9811,7 +9903,7 @@
         <v>268</v>
       </c>
       <c r="V71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W71" s="2">
         <v>5</v>
@@ -9841,7 +9933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>269</v>
       </c>
@@ -9936,7 +10028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>275</v>
       </c>
@@ -10031,7 +10123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>280</v>
       </c>
@@ -10126,7 +10218,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>286</v>
       </c>
@@ -10221,7 +10313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>280</v>
       </c>
@@ -10316,7 +10408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>280</v>
       </c>
@@ -10381,7 +10473,7 @@
         <v>298</v>
       </c>
       <c r="V77" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W77" s="2">
         <v>10.7</v>
@@ -10411,7 +10503,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>304</v>
       </c>
@@ -10506,7 +10598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>299</v>
       </c>
